--- a/outputs/raw/Customer_UsedFactory_Result.xlsx
+++ b/outputs/raw/Customer_UsedFactory_Result.xlsx
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
       <c r="H238" t="n">
         <v>1</v>
@@ -11665,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
       <c r="H239" t="n">
         <v>1</v>
